--- a/isitword test/ref/wordorderfull.xlsx
+++ b/isitword test/ref/wordorderfull.xlsx
@@ -462,85 +462,85 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>คุบริ้</t>
+          <t>dsiay</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>word/wordth0713.png</t>
+          <t>word/worden0502.png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>บายงล</t>
+          <t>vase</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>word/wordth0662.png</t>
+          <t>word/worden0261.png</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>awlas</t>
+          <t>ฐอิ</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>word/worden0443.png</t>
+          <t>word/wordth0422.png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>กงุ้</t>
+          <t>aronu</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>word/wordth0682.png</t>
+          <t>word/worden0523.png</t>
         </is>
       </c>
     </row>
@@ -549,19 +549,19 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>pear</t>
+          <t>omlne</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>word/worden0231.png</t>
+          <t>word/worden0482.png</t>
         </is>
       </c>
     </row>
@@ -573,16 +573,16 @@
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>bcat</t>
+          <t>dorat</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>word/worden0223.png</t>
+          <t>word/worden0463.png</t>
         </is>
       </c>
     </row>
@@ -591,124 +591,124 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>หมวก</t>
+          <t>นคูนัธ</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>word/wordth0071.png</t>
+          <t>word/wordth0092.png</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>pillow</t>
+          <t>ล่เอืย</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>word/worden0631.png</t>
+          <t>word/wordth0082.png</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>gorilla</t>
+          <t>รัถสบ</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>word/worden0961.png</t>
+          <t>word/wordth0012.png</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>caen</t>
+          <t>ะมาวน</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>word/worden0242.png</t>
+          <t>word/wordth0482.png</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>าากปก</t>
+          <t>pear</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>word/wordth0062.png</t>
+          <t>word/worden0231.png</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>bat</t>
+          <t>หมวก</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>word/worden0102.png</t>
+          <t>word/wordth0071.png</t>
         </is>
       </c>
     </row>
@@ -720,16 +720,16 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>podlana</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>word/worden0033.png</t>
+          <t>word/worden0883.png</t>
         </is>
       </c>
     </row>
@@ -738,61 +738,61 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ล่เอืย</t>
+          <t>แรคคูน</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>word/wordth0082.png</t>
+          <t>word/wordth0951.png</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="n">
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ฐอิ</t>
+          <t>bwo</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>word/wordth0422.png</t>
+          <t>word/worden0092.png</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>anchor</t>
+          <t>ดวลโข้</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>word/worden0641.png</t>
+          <t>word/wordth0503.png</t>
         </is>
       </c>
     </row>
@@ -801,124 +801,124 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>อำนฟ้ง</t>
+          <t>ถั่วงอก</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>word/wordth0702.png</t>
+          <t>word/wordth0891.png</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>หนนา</t>
+          <t>eesrar</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>word/wordth0073.png</t>
+          <t>word/worden0662.png</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
         <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>bua</t>
+          <t>ลูนธาน์</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>word/worden0013.png</t>
+          <t>word/wordth0233.png</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>กุ้ง</t>
+          <t>squratz</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>word/wordth0681.png</t>
+          <t>word/worden0893.png</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ถี้บเยข</t>
+          <t>gpones</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>word/wordth0893.png</t>
+          <t>word/worden0702.png</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
         <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>sqeolae</t>
+          <t>กีลึ</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>word/worden0943.png</t>
+          <t>word/wordth0303.png</t>
         </is>
       </c>
     </row>
@@ -927,103 +927,103 @@
         <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>czalka</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>word/worden0221.png</t>
+          <t>word/worden0713.png</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>slaimy</t>
+          <t>ดิน</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>word/worden0683.png</t>
+          <t>word/wordth0271.png</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ค้นถาพล</t>
+          <t>staple</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>word/wordth0103.png</t>
+          <t>word/worden0751.png</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="n">
         <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>podlana</t>
+          <t>แคกขุย</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>word/worden0883.png</t>
+          <t>word/wordth0953.png</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>หนังสือ</t>
+          <t>sus</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>word/wordth0221.png</t>
+          <t>word/worden0083.png</t>
         </is>
       </c>
     </row>
@@ -1035,16 +1035,16 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ดิน</t>
+          <t>แม็ก</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>word/wordth0271.png</t>
+          <t>word/wordth0751.png</t>
         </is>
       </c>
     </row>
@@ -1053,40 +1053,40 @@
         <v>2</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>accpoke</t>
+          <t>pillow</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>word/worden0872.png</t>
+          <t>word/worden0631.png</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" t="n">
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>วกีี</t>
+          <t>teurlvu</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>word/wordth0302.png</t>
+          <t>word/worden0932.png</t>
         </is>
       </c>
     </row>
@@ -1098,58 +1098,58 @@
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ดก้ไอม</t>
+          <t>หวมก</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>word/wordth0502.png</t>
+          <t>word/wordth0072.png</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>jgu</t>
+          <t>าากปก</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>word/worden0112.png</t>
+          <t>word/wordth0062.png</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ว่าตนแ</t>
+          <t>gorilla</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>word/wordth0822.png</t>
+          <t>word/worden0961.png</t>
         </is>
       </c>
     </row>
@@ -1158,19 +1158,19 @@
         <v>2</v>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>vore</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>word/worden0263.png</t>
+          <t>word/worden0031.png</t>
         </is>
       </c>
     </row>
@@ -1179,19 +1179,19 @@
         <v>2</v>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>gpones</t>
+          <t>bow</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>word/worden0702.png</t>
+          <t>word/worden0091.png</t>
         </is>
       </c>
     </row>
@@ -1200,19 +1200,19 @@
         <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>กหืยอเ</t>
+          <t>มะนาว</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>word/wordth0112.png</t>
+          <t>word/wordth0481.png</t>
         </is>
       </c>
     </row>
@@ -1221,19 +1221,19 @@
         <v>2</v>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" t="n">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>sloi</t>
+          <t>ardana</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>word/worden0272.png</t>
+          <t>word/worden0643.png</t>
         </is>
       </c>
     </row>
@@ -1242,124 +1242,124 @@
         <v>2</v>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>accnoor</t>
+          <t>speaker</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>word/worden0952.png</t>
+          <t>word/worden0941.png</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ไม้เท้า</t>
+          <t>belt</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>word/wordth0241.png</t>
+          <t>word/worden0311.png</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>saw</t>
+          <t>นอมห</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>word/worden0081.png</t>
+          <t>word/wordth0632.png</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>arrow</t>
+          <t>เข็มขัด</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>word/worden0521.png</t>
+          <t>word/wordth0311.png</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>golk</t>
+          <t>น้มอหำ</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>word/worden0283.png</t>
+          <t>word/wordth0882.png</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>รถบัส</t>
+          <t>sub</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>word/wordth0011.png</t>
+          <t>word/worden0012.png</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1371,37 @@
         <v>3</v>
       </c>
       <c r="C45" t="n">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>นาจรึก</t>
+          <t>เกนีทน</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>word/wordth0933.png</t>
+          <t>word/wordth0113.png</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>เข็มขัด</t>
+          <t>rcbik</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>word/wordth0311.png</t>
+          <t>word/worden0422.png</t>
         </is>
       </c>
     </row>
@@ -1410,40 +1410,40 @@
         <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>สว่าน</t>
+          <t>รลศกู</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>word/wordth0411.png</t>
+          <t>word/wordth0522.png</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" t="n">
         <v>3</v>
       </c>
       <c r="C48" t="n">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ลูงภพ</t>
+          <t>eczera</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>word/wordth0523.png</t>
+          <t>word/worden0663.png</t>
         </is>
       </c>
     </row>
@@ -1455,58 +1455,58 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>cino</t>
+          <t>rusarin</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>word/worden0243.png</t>
+          <t>word/worden0953.png</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>นดถูค</t>
+          <t>brick</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>word/wordth0873.png</t>
+          <t>word/worden0421.png</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>lemon</t>
+          <t>ว่าตนแ</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>word/worden0481.png</t>
+          <t>word/wordth0822.png</t>
         </is>
       </c>
     </row>
@@ -1515,82 +1515,82 @@
         <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>มะนาว</t>
+          <t>ขนาผฟีล</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>word/wordth0481.png</t>
+          <t>word/wordth0283.png</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>donut</t>
+          <t>ลูกแพร์</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>word/worden0461.png</t>
+          <t>word/wordth0231.png</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>กกุคี้</t>
+          <t>lenam</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>word/wordth0712.png</t>
+          <t>word/worden0483.png</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>atc</t>
+          <t>ลันใยบ</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>word/worden0032.png</t>
+          <t>word/wordth0943.png</t>
         </is>
       </c>
     </row>
@@ -1617,85 +1617,85 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>อำกัพ</t>
+          <t>eapr</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>word/wordth0443.png</t>
+          <t>word/worden0232.png</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58" t="n">
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>hcocu</t>
+          <t>รูคนคแ</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>word/worden0512.png</t>
+          <t>word/wordth0952.png</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>sprouts</t>
+          <t>ดทนัโ</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>word/worden0891.png</t>
+          <t>word/wordth0462.png</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>ฟองน้ำ</t>
+          <t>sprouts</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>word/wordth0701.png</t>
+          <t>word/worden0891.png</t>
         </is>
       </c>
     </row>
@@ -1707,163 +1707,163 @@
         <v>3</v>
       </c>
       <c r="C61" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>het</t>
+          <t>boik</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>word/worden0073.png</t>
+          <t>word/worden0313.png</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ะมาวน</t>
+          <t>hat</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>word/wordth0482.png</t>
+          <t>word/worden0071.png</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>ดทนัโ</t>
+          <t>vore</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>word/wordth0462.png</t>
+          <t>word/worden0263.png</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ไย้นทีล</t>
+          <t>rlldi</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>word/wordth0243.png</t>
+          <t>word/worden0412.png</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>biwol</t>
+          <t>ขัวองญข</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>word/worden0423.png</t>
+          <t>word/wordth0282.png</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ขนาผฟีล</t>
+          <t>caen</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>word/wordth0283.png</t>
+          <t>word/worden0242.png</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C67" t="n">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>belt</t>
+          <t>รูฟฝื้อ</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>word/worden0311.png</t>
+          <t>word/wordth0613.png</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>แมว</t>
+          <t>accpoke</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>word/wordth0031.png</t>
+          <t>word/worden0872.png</t>
         </is>
       </c>
     </row>
@@ -1872,103 +1872,103 @@
         <v>2</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>eraser</t>
+          <t>bur</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>word/worden0661.png</t>
+          <t>word/worden0093.png</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B70" t="n">
         <v>3</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>รพท้น</t>
+          <t>vandere</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>word/wordth0013.png</t>
+          <t>word/worden0933.png</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>amber</t>
+          <t>ว่ถกอัง</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>word/worden0441.png</t>
+          <t>word/wordth0892.png</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C72" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>saw</t>
+          <t>ไย้นทีล</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>word/worden0082.png</t>
+          <t>word/wordth0243.png</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>couch</t>
+          <t>วกีี</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>word/worden0511.png</t>
+          <t>word/wordth0302.png</t>
         </is>
       </c>
     </row>
@@ -1977,40 +1977,40 @@
         <v>2</v>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C74" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>rlldi</t>
+          <t>scyl</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>word/worden0412.png</t>
+          <t>word/worden0273.png</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>แย้บคา</t>
+          <t>couch</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>word/wordth0823.png</t>
+          <t>word/worden0511.png</t>
         </is>
       </c>
     </row>
@@ -2022,58 +2022,58 @@
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>cane</t>
+          <t>book</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>word/worden0241.png</t>
+          <t>word/worden0221.png</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>cowok</t>
+          <t>บายงล</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>word/worden0513.png</t>
+          <t>word/wordth0662.png</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>ดวลโข้</t>
+          <t>jug</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>word/wordth0503.png</t>
+          <t>word/worden0111.png</t>
         </is>
       </c>
     </row>
@@ -2085,58 +2085,58 @@
         <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>ขเดมัข็</t>
+          <t>โฟซา</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>word/wordth0312.png</t>
+          <t>word/wordth0512.png</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B80" t="n">
         <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>ยูกนง</t>
+          <t>ipsmrh</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>word/wordth0872.png</t>
+          <t>word/worden0682.png</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B81" t="n">
         <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>omlne</t>
+          <t>นวาส่</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>word/worden0482.png</t>
+          <t>word/wordth0412.png</t>
         </is>
       </c>
     </row>
@@ -2148,16 +2148,16 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>sponge</t>
+          <t>glasses</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>word/worden0701.png</t>
+          <t>word/worden0821.png</t>
         </is>
       </c>
     </row>
@@ -2169,16 +2169,16 @@
         <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>รูคนคแ</t>
+          <t>อำนฟ้ง</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>word/wordth0952.png</t>
+          <t>word/wordth0702.png</t>
         </is>
       </c>
     </row>
@@ -2190,37 +2190,37 @@
         <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>กบคีนรอ</t>
+          <t>หนนา</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>word/wordth0963.png</t>
+          <t>word/wordth0073.png</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C85" t="n">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>งก้แรน</t>
+          <t>cowok</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>word/wordth0932.png</t>
+          <t>word/worden0513.png</t>
         </is>
       </c>
     </row>
@@ -2232,16 +2232,16 @@
         <v>3</v>
       </c>
       <c r="C86" t="n">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>ลันใยบ</t>
+          <t>โตคีก</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>word/wordth0943.png</t>
+          <t>word/wordth0463.png</t>
         </is>
       </c>
     </row>
@@ -2253,37 +2253,37 @@
         <v>3</v>
       </c>
       <c r="C87" t="n">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>scyl</t>
+          <t>slaimy</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>word/worden0273.png</t>
+          <t>word/worden0683.png</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>brick</t>
+          <t>ดก้ไอม</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>word/worden0421.png</t>
+          <t>word/wordth0502.png</t>
         </is>
       </c>
     </row>
@@ -2295,16 +2295,16 @@
         <v>2</v>
       </c>
       <c r="C89" t="n">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>bwo</t>
+          <t>irallog</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>word/worden0092.png</t>
+          <t>word/worden0962.png</t>
         </is>
       </c>
     </row>
@@ -2313,61 +2313,61 @@
         <v>1</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C90" t="n">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>ถั่วงอก</t>
+          <t>ค้นถาพล</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>word/wordth0891.png</t>
+          <t>word/wordth0103.png</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C91" t="n">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>ว่ถกอัง</t>
+          <t>druto</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>word/wordth0892.png</t>
+          <t>word/worden0413.png</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>pilder</t>
+          <t>คันธนู</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>word/worden0633.png</t>
+          <t>word/wordth0091.png</t>
         </is>
       </c>
     </row>
@@ -2379,16 +2379,16 @@
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>statue</t>
+          <t>donut</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>word/worden0611.png</t>
+          <t>word/worden0461.png</t>
         </is>
       </c>
     </row>
@@ -2397,82 +2397,82 @@
         <v>1</v>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>คัรหบุ</t>
+          <t>ฟองน้ำ</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>word/wordth0093.png</t>
+          <t>word/wordth0701.png</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C95" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>vase</t>
+          <t>ปลบกน</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>word/worden0261.png</t>
+          <t>word/wordth0063.png</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C96" t="n">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>โซฟา</t>
+          <t>sealsgs</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>word/wordth0511.png</t>
+          <t>word/worden0822.png</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>ikiw</t>
+          <t>แมว</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>word/worden0302.png</t>
+          <t>word/wordth0031.png</t>
         </is>
       </c>
     </row>
@@ -2481,40 +2481,40 @@
         <v>2</v>
       </c>
       <c r="B98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C98" t="n">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>genitke</t>
+          <t>ipllwo</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>word/worden0963.png</t>
+          <t>word/worden0632.png</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C99" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>คาค้วาง</t>
+          <t>bua</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>word/wordth0102.png</t>
+          <t>word/worden0013.png</t>
         </is>
       </c>
     </row>
@@ -2523,19 +2523,19 @@
         <v>1</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>คุกกี้</t>
+          <t>อิฎ</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>word/wordth0711.png</t>
+          <t>word/wordth0423.png</t>
         </is>
       </c>
     </row>
@@ -2544,19 +2544,19 @@
         <v>1</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C101" t="n">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ลูกศร</t>
+          <t>พูก์แรล</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>word/wordth0521.png</t>
+          <t>word/wordth0232.png</t>
         </is>
       </c>
     </row>
@@ -2565,19 +2565,19 @@
         <v>1</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>แรคคูน</t>
+          <t>งก้แรน</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>word/wordth0951.png</t>
+          <t>word/wordth0932.png</t>
         </is>
       </c>
     </row>
@@ -2586,103 +2586,103 @@
         <v>2</v>
       </c>
       <c r="B103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C103" t="n">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>ochrna</t>
+          <t>glianca</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>word/worden0642.png</t>
+          <t>word/worden0823.png</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>เกนีทน</t>
+          <t>amrbe</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>word/wordth0113.png</t>
+          <t>word/worden0442.png</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B105" t="n">
         <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ลูกแพร์</t>
+          <t>eraser</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>word/wordth0231.png</t>
+          <t>word/worden0661.png</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C106" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>rcbik</t>
+          <t>มนเจร</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>word/worden0422.png</t>
+          <t>word/wordth0483.png</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ลูนธาน์</t>
+          <t>anchor</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>word/wordth0233.png</t>
+          <t>word/worden0641.png</t>
         </is>
       </c>
     </row>
@@ -2691,19 +2691,19 @@
         <v>1</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>รูปปั้น</t>
+          <t>กงุ้</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>word/wordth0611.png</t>
+          <t>word/wordth0682.png</t>
         </is>
       </c>
     </row>
@@ -2712,145 +2712,145 @@
         <v>2</v>
       </c>
       <c r="B109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>pao</t>
+          <t>statue</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>word/worden0063.png</t>
+          <t>word/worden0611.png</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C110" t="n">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>แคกขุย</t>
+          <t>fgit</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>word/wordth0953.png</t>
+          <t>word/worden0282.png</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C111" t="n">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>reapkes</t>
+          <t>หกันพีบ</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>word/worden0942.png</t>
+          <t>word/wordth0223.png</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C112" t="n">
         <v>27</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>soil</t>
+          <t>ดีย</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>word/worden0271.png</t>
+          <t>word/wordth0273.png</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B113" t="n">
         <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>นกแร้ง</t>
+          <t>shrimp</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>word/wordth0931.png</t>
+          <t>word/worden0681.png</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B114" t="n">
         <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>bat</t>
+          <t>หมอน</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>word/worden0101.png</t>
+          <t>word/wordth0631.png</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B115" t="n">
         <v>2</v>
       </c>
       <c r="C115" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>aht</t>
+          <t>มวแ</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>word/worden0072.png</t>
+          <t>word/wordth0032.png</t>
         </is>
       </c>
     </row>
@@ -2862,16 +2862,16 @@
         <v>3</v>
       </c>
       <c r="C116" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>pewo</t>
+          <t>knan</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>word/worden0233.png</t>
+          <t>word/worden0303.png</t>
         </is>
       </c>
     </row>
@@ -2883,64 +2883,64 @@
         <v>3</v>
       </c>
       <c r="C117" t="n">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>แสนืร</t>
+          <t>ยอนวบ</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>word/wordth0263.png</t>
+          <t>word/wordth0663.png</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>amrbe</t>
+          <t>อิฐ</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>word/worden0442.png</t>
+          <t>word/wordth0421.png</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B119" t="n">
         <v>3</v>
       </c>
       <c r="C119" t="n">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>เกี๊ยน</t>
+          <t>pilder</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>word/wordth0083.png</t>
+          <t>word/worden0633.png</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B120" t="n">
         <v>1</v>
@@ -2950,12 +2950,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>อำพัน</t>
+          <t>amber</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>word/wordth0441.png</t>
+          <t>word/worden0441.png</t>
         </is>
       </c>
     </row>
@@ -2964,40 +2964,40 @@
         <v>2</v>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C121" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>daisy</t>
+          <t>saetut</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>word/worden0501.png</t>
+          <t>word/worden0612.png</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>juq</t>
+          <t>รูปปั้น</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>word/worden0113.png</t>
+          <t>word/wordth0611.png</t>
         </is>
       </c>
     </row>
@@ -3006,40 +3006,40 @@
         <v>2</v>
       </c>
       <c r="B123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C123" t="n">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>squratz</t>
+          <t>epn</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>word/worden0893.png</t>
+          <t>word/worden0062.png</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B124" t="n">
         <v>2</v>
       </c>
       <c r="C124" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>แมก็</t>
+          <t>ikiw</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>word/wordth0752.png</t>
+          <t>word/worden0302.png</t>
         </is>
       </c>
     </row>
@@ -3048,19 +3048,19 @@
         <v>2</v>
       </c>
       <c r="B125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>epn</t>
+          <t>bus</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>word/worden0062.png</t>
+          <t>word/worden0011.png</t>
         </is>
       </c>
     </row>
@@ -3072,16 +3072,16 @@
         <v>2</v>
       </c>
       <c r="C126" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>ขัวองญข</t>
+          <t>สัหอืนง</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>word/wordth0282.png</t>
+          <t>word/wordth0222.png</t>
         </is>
       </c>
     </row>
@@ -3090,40 +3090,40 @@
         <v>2</v>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C127" t="n">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>speaker</t>
+          <t>roraw</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>word/worden0941.png</t>
+          <t>word/worden0522.png</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C128" t="n">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>นอมห</t>
+          <t>biwol</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>word/wordth0632.png</t>
+          <t>word/worden0423.png</t>
         </is>
       </c>
     </row>
@@ -3132,229 +3132,229 @@
         <v>2</v>
       </c>
       <c r="B129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C129" t="n">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>sus</t>
+          <t>kiooce</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>word/worden0083.png</t>
+          <t>word/worden0712.png</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B130" t="n">
         <v>3</v>
       </c>
       <c r="C130" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>bcat</t>
+          <t>อำกัพ</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>word/worden0313.png</t>
+          <t>word/wordth0443.png</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C131" t="n">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>gift</t>
+          <t>ลูงภพ</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>word/worden0281.png</t>
+          <t>word/wordth0523.png</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B132" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>รูฟฝื้อ</t>
+          <t>bat</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>word/wordth0613.png</t>
+          <t>word/worden0101.png</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B133" t="n">
         <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>ของขวัญ</t>
+          <t>pen</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>word/wordth0281.png</t>
+          <t>word/worden0061.png</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>รัถสบ</t>
+          <t>gift</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>word/wordth0012.png</t>
+          <t>word/worden0281.png</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B135" t="n">
         <v>2</v>
       </c>
       <c r="C135" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>tleb</t>
+          <t>กหืยอเ</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>word/worden0312.png</t>
+          <t>word/wordth0112.png</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B136" t="n">
         <v>2</v>
       </c>
       <c r="C136" t="n">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>ป้ปันรู</t>
+          <t>tba</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>word/wordth0612.png</t>
+          <t>word/worden0102.png</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C137" t="n">
         <v>46</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>โตคีก</t>
+          <t>utodn</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>word/wordth0463.png</t>
+          <t>word/worden0462.png</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B138" t="n">
         <v>2</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>sub</t>
+          <t>โงำลพ</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>word/worden0012.png</t>
+          <t>word/wordth0942.png</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B139" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
         <v>52</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>aronu</t>
+          <t>ลูกศร</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>word/worden0523.png</t>
+          <t>word/wordth0521.png</t>
         </is>
       </c>
     </row>
@@ -3363,19 +3363,19 @@
         <v>1</v>
       </c>
       <c r="B140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C140" t="n">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>เน้บลีต</t>
+          <t>อลราลกิ</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>word/wordth0313.png</t>
+          <t>word/wordth0962.png</t>
         </is>
       </c>
     </row>
@@ -3384,40 +3384,40 @@
         <v>2</v>
       </c>
       <c r="B141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C141" t="n">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>eesrar</t>
+          <t>cino</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>word/worden0662.png</t>
+          <t>word/worden0243.png</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C142" t="n">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>แว่นตา</t>
+          <t>swa</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>word/wordth0821.png</t>
+          <t>word/worden0082.png</t>
         </is>
       </c>
     </row>
@@ -3426,19 +3426,19 @@
         <v>1</v>
       </c>
       <c r="B143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C143" t="n">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>ปลบกน</t>
+          <t>กกุคี้</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>word/wordth0063.png</t>
+          <t>word/wordth0712.png</t>
         </is>
       </c>
     </row>
@@ -3447,61 +3447,61 @@
         <v>2</v>
       </c>
       <c r="B144" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>bok</t>
+          <t>sponge</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>word/worden0103.png</t>
+          <t>word/worden0701.png</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C145" t="n">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>teurlvu</t>
+          <t>หนตบ</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>word/worden0932.png</t>
+          <t>word/wordth0633.png</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C146" t="n">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>saetut</t>
+          <t>นาจรึก</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>word/worden0612.png</t>
+          <t>word/wordth0933.png</t>
         </is>
       </c>
     </row>
@@ -3513,100 +3513,100 @@
         <v>3</v>
       </c>
       <c r="C147" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>สยึนบ</t>
+          <t>ฟวยวิ้บ</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>word/wordth0413.png</t>
+          <t>word/wordth0703.png</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>หวมก</t>
+          <t>daisy</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>word/wordth0072.png</t>
+          <t>word/worden0501.png</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>bus</t>
+          <t>กบคีนรอ</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>word/worden0011.png</t>
+          <t>word/wordth0963.png</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B150" t="n">
         <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>perfume</t>
+          <t>คุกกี้</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>word/worden0881.png</t>
+          <t>word/wordth0711.png</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C151" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>หกันพีบ</t>
+          <t>tleb</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>word/wordth0223.png</t>
+          <t>word/worden0312.png</t>
         </is>
       </c>
     </row>
@@ -3618,16 +3618,16 @@
         <v>3</v>
       </c>
       <c r="C152" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>lenam</t>
+          <t>syspem</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>word/worden0483.png</t>
+          <t>word/worden0703.png</t>
         </is>
       </c>
     </row>
@@ -3636,19 +3636,19 @@
         <v>1</v>
       </c>
       <c r="B153" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>แก๊ม</t>
+          <t>สว่าน</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>word/wordth0753.png</t>
+          <t>word/wordth0411.png</t>
         </is>
       </c>
     </row>
@@ -3657,40 +3657,40 @@
         <v>1</v>
       </c>
       <c r="B154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C154" t="n">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>โฟซา</t>
+          <t>คัรหบุ</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>word/wordth0512.png</t>
+          <t>word/wordth0093.png</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B155" t="n">
         <v>2</v>
       </c>
       <c r="C155" t="n">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>kiooce</t>
+          <t>ยูกนง</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>word/worden0712.png</t>
+          <t>word/wordth0872.png</t>
         </is>
       </c>
     </row>
@@ -3702,16 +3702,16 @@
         <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>น้ำหอม</t>
+          <t>โดนัท</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>word/wordth0881.png</t>
+          <t>word/wordth0461.png</t>
         </is>
       </c>
     </row>
@@ -3720,40 +3720,40 @@
         <v>1</v>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C157" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>คันธนู</t>
+          <t>รพท้น</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>word/wordth0091.png</t>
+          <t>word/wordth0013.png</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>อิฎ</t>
+          <t>lemon</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>word/wordth0423.png</t>
+          <t>word/worden0481.png</t>
         </is>
       </c>
     </row>
@@ -3762,61 +3762,61 @@
         <v>2</v>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C159" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>jug</t>
+          <t>denog</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>word/worden0111.png</t>
+          <t>word/worden0503.png</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C160" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>โดนัท</t>
+          <t>ced</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>word/wordth0461.png</t>
+          <t>word/worden0033.png</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B161" t="n">
         <v>2</v>
       </c>
       <c r="C161" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>ipsmrh</t>
+          <t>มสอ</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>word/worden0682.png</t>
+          <t>word/wordth0642.png</t>
         </is>
       </c>
     </row>
@@ -3825,19 +3825,19 @@
         <v>2</v>
       </c>
       <c r="B162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>posocyt</t>
+          <t>perfume</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>word/worden0873.png</t>
+          <t>word/worden0881.png</t>
         </is>
       </c>
     </row>
@@ -3846,82 +3846,82 @@
         <v>2</v>
       </c>
       <c r="B163" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>ardana</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>word/worden0643.png</t>
+          <t>word/worden0411.png</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>น้มอหำ</t>
+          <t>kiwi</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>word/wordth0882.png</t>
+          <t>word/worden0301.png</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B165" t="n">
         <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>กอริลลา</t>
+          <t>peacock</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>word/wordth0961.png</t>
+          <t>word/worden0871.png</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C166" t="n">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>rusarin</t>
+          <t>กนแจั</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>word/worden0953.png</t>
+          <t>word/wordth0262.png</t>
         </is>
       </c>
     </row>
@@ -3930,82 +3930,82 @@
         <v>2</v>
       </c>
       <c r="B167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C167" t="n">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>vandere</t>
+          <t>asve</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>word/worden0933.png</t>
+          <t>word/worden0262.png</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C168" t="n">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>สมอ</t>
+          <t>accnoor</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>word/wordth0641.png</t>
+          <t>word/worden0952.png</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>สัหอืนง</t>
+          <t>saw</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>word/wordth0222.png</t>
+          <t>word/worden0081.png</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C170" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>okob</t>
+          <t>แสนืร</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>word/worden0222.png</t>
+          <t>word/wordth0263.png</t>
         </is>
       </c>
     </row>
@@ -4014,19 +4014,19 @@
         <v>2</v>
       </c>
       <c r="B171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>irallog</t>
+          <t>raccoon</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>word/worden0962.png</t>
+          <t>word/worden0951.png</t>
         </is>
       </c>
     </row>
@@ -4038,16 +4038,16 @@
         <v>3</v>
       </c>
       <c r="C172" t="n">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>ดีย</t>
+          <t>คุบริ้</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>word/wordth0273.png</t>
+          <t>word/wordth0713.png</t>
         </is>
       </c>
     </row>
@@ -4056,19 +4056,19 @@
         <v>2</v>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C173" t="n">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>raccoon</t>
+          <t>aht</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>word/worden0951.png</t>
+          <t>word/worden0072.png</t>
         </is>
       </c>
     </row>
@@ -4080,37 +4080,37 @@
         <v>3</v>
       </c>
       <c r="C174" t="n">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>หนตบ</t>
+          <t>แรน</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>word/wordth0633.png</t>
+          <t>word/wordth0033.png</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B175" t="n">
         <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>kiwi</t>
+          <t>เหยือก</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>word/worden0301.png</t>
+          <t>word/wordth0111.png</t>
         </is>
       </c>
     </row>
@@ -4119,40 +4119,40 @@
         <v>1</v>
       </c>
       <c r="B176" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>แรน</t>
+          <t>แจกัน</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>word/wordth0033.png</t>
+          <t>word/wordth0261.png</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C177" t="n">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>ปากกา</t>
+          <t>hcocu</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>word/wordth0061.png</t>
+          <t>word/worden0512.png</t>
         </is>
       </c>
     </row>
@@ -4161,124 +4161,124 @@
         <v>1</v>
       </c>
       <c r="B178" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>โผฝบ</t>
+          <t>น้ำหอม</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>word/wordth0513.png</t>
+          <t>word/wordth0881.png</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B179" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C179" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>utosspr</t>
+          <t>แก๊ม</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>word/worden0892.png</t>
+          <t>word/wordth0753.png</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B180" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>druto</t>
+          <t>สมอ</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>word/worden0413.png</t>
+          <t>word/wordth0641.png</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B181" t="n">
         <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>staple</t>
+          <t>นกแร้ง</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>word/worden0751.png</t>
+          <t>word/wordth0931.png</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C182" t="n">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>นี้นยาค</t>
+          <t>sloi</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>word/wordth0883.png</t>
+          <t>word/worden0272.png</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B183" t="n">
         <v>3</v>
       </c>
       <c r="C183" t="n">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>กู่บ</t>
+          <t>genitke</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>word/wordth0683.png</t>
+          <t>word/worden0963.png</t>
         </is>
       </c>
     </row>
@@ -4287,19 +4287,19 @@
         <v>2</v>
       </c>
       <c r="B184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C184" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>denog</t>
+          <t>altspe</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>word/worden0503.png</t>
+          <t>word/worden0752.png</t>
         </is>
       </c>
     </row>
@@ -4308,124 +4308,124 @@
         <v>1</v>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C185" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>ดอกไม้</t>
+          <t>นดิ</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>word/wordth0501.png</t>
+          <t>word/wordth0272.png</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>eapr</t>
+          <t>กอริลลา</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>word/worden0232.png</t>
+          <t>word/wordth0961.png</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C187" t="n">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>peacock</t>
+          <t>สวก</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>word/worden0871.png</t>
+          <t>word/wordth0643.png</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C188" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ท้เาไม้</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>word/worden0031.png</t>
+          <t>word/wordth0242.png</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B189" t="n">
         <v>2</v>
       </c>
       <c r="C189" t="n">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>fgit</t>
+          <t>ป้ปันรู</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>word/worden0282.png</t>
+          <t>word/wordth0612.png</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B190" t="n">
         <v>3</v>
       </c>
       <c r="C190" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>กีลึ</t>
+          <t>strufa</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>word/wordth0303.png</t>
+          <t>word/worden0613.png</t>
         </is>
       </c>
     </row>
@@ -4437,37 +4437,37 @@
         <v>2</v>
       </c>
       <c r="C191" t="n">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>ipllwo</t>
+          <t>jgu</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>word/worden0632.png</t>
+          <t>word/worden0112.png</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C192" t="n">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>ยางลบ</t>
+          <t>pao</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>word/wordth0661.png</t>
+          <t>word/worden0063.png</t>
         </is>
       </c>
     </row>
@@ -4479,58 +4479,58 @@
         <v>1</v>
       </c>
       <c r="C193" t="n">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>glasses</t>
+          <t>soil</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>word/worden0821.png</t>
+          <t>word/worden0271.png</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B194" t="n">
         <v>3</v>
       </c>
       <c r="C194" t="n">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>eczera</t>
+          <t>โผฝบ</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>word/worden0663.png</t>
+          <t>word/wordth0513.png</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>ermpfeu</t>
+          <t>โซฟา</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>word/worden0882.png</t>
+          <t>word/wordth0511.png</t>
         </is>
       </c>
     </row>
@@ -4539,40 +4539,40 @@
         <v>2</v>
       </c>
       <c r="B196" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>syspem</t>
+          <t>cookie</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>word/worden0703.png</t>
+          <t>word/worden0711.png</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C197" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>ค้างคาว</t>
+          <t>juq</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>word/wordth0101.png</t>
+          <t>word/worden0113.png</t>
         </is>
       </c>
     </row>
@@ -4581,40 +4581,40 @@
         <v>2</v>
       </c>
       <c r="B198" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>bur</t>
+          <t>cane</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>word/worden0093.png</t>
+          <t>word/worden0241.png</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B199" t="n">
         <v>2</v>
       </c>
       <c r="C199" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>กนแจั</t>
+          <t>okob</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>word/wordth0262.png</t>
+          <t>word/worden0222.png</t>
         </is>
       </c>
     </row>
@@ -4626,16 +4626,16 @@
         <v>2</v>
       </c>
       <c r="C200" t="n">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>นคูนัธ</t>
+          <t>แมก็</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>word/wordth0092.png</t>
+          <t>word/wordth0752.png</t>
         </is>
       </c>
     </row>
@@ -4647,58 +4647,58 @@
         <v>2</v>
       </c>
       <c r="C201" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>altspe</t>
+          <t>atc</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>word/worden0752.png</t>
+          <t>word/worden0032.png</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>sealsgs</t>
+          <t>กุ้ง</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>word/worden0822.png</t>
+          <t>word/wordth0681.png</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>พำนัอ</t>
+          <t>vulture</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>word/wordth0442.png</t>
+          <t>word/worden0931.png</t>
         </is>
       </c>
     </row>
@@ -4707,19 +4707,19 @@
         <v>2</v>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C204" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>cookie</t>
+          <t>ermpfeu</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>word/worden0711.png</t>
+          <t>word/worden0882.png</t>
         </is>
       </c>
     </row>
@@ -4728,19 +4728,19 @@
         <v>1</v>
       </c>
       <c r="B205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>มสอ</t>
+          <t>ดอกไม้</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>word/wordth0642.png</t>
+          <t>word/wordth0501.png</t>
         </is>
       </c>
     </row>
@@ -4749,61 +4749,61 @@
         <v>1</v>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C206" t="n">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>หมอน</t>
+          <t>แย้บคา</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>word/wordth0631.png</t>
+          <t>word/wordth0823.png</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B207" t="n">
         <v>3</v>
       </c>
       <c r="C207" t="n">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>dorat</t>
+          <t>กู่บ</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>word/worden0463.png</t>
+          <t>word/wordth0683.png</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C208" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>แม็ก</t>
+          <t>utosspr</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>word/wordth0751.png</t>
+          <t>word/worden0892.png</t>
         </is>
       </c>
     </row>
@@ -4812,40 +4812,40 @@
         <v>1</v>
       </c>
       <c r="B209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C209" t="n">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>ยอนวบ</t>
+          <t>พำนัอ</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>word/wordth0663.png</t>
+          <t>word/wordth0442.png</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B210" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>knan</t>
+          <t>นกยูง</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>word/worden0303.png</t>
+          <t>word/wordth0871.png</t>
         </is>
       </c>
     </row>
@@ -4854,19 +4854,19 @@
         <v>1</v>
       </c>
       <c r="B211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>นดิ</t>
+          <t>ไม้เท้า</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>word/wordth0272.png</t>
+          <t>word/wordth0241.png</t>
         </is>
       </c>
     </row>
@@ -4875,19 +4875,19 @@
         <v>2</v>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C212" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>shrimp</t>
+          <t>sfepto</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>word/worden0681.png</t>
+          <t>word/worden0753.png</t>
         </is>
       </c>
     </row>
@@ -4896,40 +4896,40 @@
         <v>1</v>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C213" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>ลำโพง</t>
+          <t>นดถูค</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>word/wordth0941.png</t>
+          <t>word/wordth0873.png</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B214" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C214" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>ท้เาไม้</t>
+          <t>awlas</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>word/wordth0242.png</t>
+          <t>word/worden0443.png</t>
         </is>
       </c>
     </row>
@@ -4938,61 +4938,61 @@
         <v>2</v>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C215" t="n">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>vulture</t>
+          <t>het</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>word/worden0931.png</t>
+          <t>word/worden0073.png</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C216" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>bow</t>
+          <t>ขเดมัข็</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>word/worden0091.png</t>
+          <t>word/wordth0312.png</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B217" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C217" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>pen</t>
+          <t>เกี๊ยน</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>word/worden0061.png</t>
+          <t>word/wordth0083.png</t>
         </is>
       </c>
     </row>
@@ -5001,19 +5001,19 @@
         <v>1</v>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C218" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>นกยูง</t>
+          <t>นี้นยาค</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>word/wordth0871.png</t>
+          <t>word/wordth0883.png</t>
         </is>
       </c>
     </row>
@@ -5022,103 +5022,103 @@
         <v>1</v>
       </c>
       <c r="B219" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C219" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>มนเจร</t>
+          <t>ค้างคาว</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>word/wordth0483.png</t>
+          <t>word/wordth0101.png</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C220" t="n">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>เลื่อย</t>
+          <t>sqeolae</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>word/wordth0081.png</t>
+          <t>word/worden0943.png</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B221" t="n">
         <v>1</v>
       </c>
       <c r="C221" t="n">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>ปากกา</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>word/worden0411.png</t>
+          <t>word/wordth0061.png</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>พูก์แรล</t>
+          <t>arrow</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>word/wordth0232.png</t>
+          <t>word/worden0521.png</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B223" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C223" t="n">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>อลราลกิ</t>
+          <t>pewo</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>word/wordth0962.png</t>
+          <t>word/worden0233.png</t>
         </is>
       </c>
     </row>
@@ -5130,16 +5130,16 @@
         <v>1</v>
       </c>
       <c r="C224" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>แจกัน</t>
+          <t>รถบัส</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>word/wordth0261.png</t>
+          <t>word/wordth0011.png</t>
         </is>
       </c>
     </row>
@@ -5148,19 +5148,19 @@
         <v>1</v>
       </c>
       <c r="B225" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C225" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>โงำลพ</t>
+          <t>ถี้บเยข</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>word/wordth0942.png</t>
+          <t>word/wordth0893.png</t>
         </is>
       </c>
     </row>
@@ -5172,37 +5172,37 @@
         <v>3</v>
       </c>
       <c r="C226" t="n">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>glianca</t>
+          <t>golk</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>word/worden0823.png</t>
+          <t>word/worden0283.png</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B227" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C227" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>มวแ</t>
+          <t>bcat</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>word/wordth0032.png</t>
+          <t>word/worden0223.png</t>
         </is>
       </c>
     </row>
@@ -5211,19 +5211,19 @@
         <v>1</v>
       </c>
       <c r="B228" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C228" t="n">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>ฟวยวิ้บ</t>
+          <t>แว่นตา</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>word/wordth0703.png</t>
+          <t>word/wordth0821.png</t>
         </is>
       </c>
     </row>
@@ -5232,19 +5232,19 @@
         <v>1</v>
       </c>
       <c r="B229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C229" t="n">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>รลศกู</t>
+          <t>เลื่อย</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>word/wordth0522.png</t>
+          <t>word/wordth0081.png</t>
         </is>
       </c>
     </row>
@@ -5253,19 +5253,19 @@
         <v>1</v>
       </c>
       <c r="B230" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C230" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>เหยือก</t>
+          <t>สยึนบ</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>word/wordth0111.png</t>
+          <t>word/wordth0413.png</t>
         </is>
       </c>
     </row>
@@ -5274,19 +5274,19 @@
         <v>2</v>
       </c>
       <c r="B231" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C231" t="n">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>asve</t>
+          <t>posocyt</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>word/worden0262.png</t>
+          <t>word/worden0873.png</t>
         </is>
       </c>
     </row>
@@ -5295,19 +5295,19 @@
         <v>1</v>
       </c>
       <c r="B232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>นวาส่</t>
+          <t>ของขวัญ</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>word/wordth0412.png</t>
+          <t>word/wordth0281.png</t>
         </is>
       </c>
     </row>
@@ -5316,40 +5316,40 @@
         <v>2</v>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C233" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>hat</t>
+          <t>bok</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>word/worden0071.png</t>
+          <t>word/worden0103.png</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B234" t="n">
         <v>2</v>
       </c>
       <c r="C234" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>utodn</t>
+          <t>คาค้วาง</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>word/worden0462.png</t>
+          <t>word/wordth0102.png</t>
         </is>
       </c>
     </row>
@@ -5361,16 +5361,16 @@
         <v>1</v>
       </c>
       <c r="C235" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>อิฐ</t>
+          <t>หนังสือ</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>word/wordth0421.png</t>
+          <t>word/wordth0221.png</t>
         </is>
       </c>
     </row>
@@ -5379,19 +5379,19 @@
         <v>2</v>
       </c>
       <c r="B236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C236" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>sfepto</t>
+          <t>reapkes</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>word/worden0753.png</t>
+          <t>word/worden0942.png</t>
         </is>
       </c>
     </row>
@@ -5403,16 +5403,16 @@
         <v>2</v>
       </c>
       <c r="C237" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>dsiay</t>
+          <t>ochrna</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>word/worden0502.png</t>
+          <t>word/worden0642.png</t>
         </is>
       </c>
     </row>
@@ -5421,82 +5421,82 @@
         <v>1</v>
       </c>
       <c r="B238" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C238" t="n">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>สวก</t>
+          <t>ลำโพง</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>word/wordth0643.png</t>
+          <t>word/wordth0941.png</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B239" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C239" t="n">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>roraw</t>
+          <t>เน้บลีต</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>word/worden0522.png</t>
+          <t>word/wordth0313.png</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B240" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>czalka</t>
+          <t>ยางลบ</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>word/worden0713.png</t>
+          <t>word/wordth0661.png</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B241" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C241" t="n">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>strufa</t>
+          <t>อำพัน</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>word/worden0613.png</t>
+          <t>word/wordth0441.png</t>
         </is>
       </c>
     </row>
